--- a/02_MasterWifoMannheim/99_Backup/Course72.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course72.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD3D0DB4B639A2011598E20F35E5BF916" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18B9C480-0829-4455-9002-626B6D543A02}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>FIN 580 Derivatives I – Basic Strategies and Pricing</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>like forwards, futures, swaps, and options will be explained. strategies like will be analyzed. Abasic and exotic instruments. The theoretical basis will be presented in lectures, while exercise classes will provide the opportunity to apply the concepts in practice.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>After the completion of this course, students will have gained a thorough understanding of the spectrum of derivative financial instruments and their functioning. Furthermore, they will have learned how to implement investment strategies using derivatives. Students acquire a working knowledge of different valuation techniques, which is a necessary condition for trading these instruments and which also allows them to price new innovative products themselves.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per weekSelf-study Lecture 2 6 Exercise class 1 3</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written Exam (60 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Stefan Ruenzi</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>and Insurance (FIN), Mathematical and Statistical Foundations (MSF)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FIN 580 Derivatives I – Basic Strategies and Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>like forwards, futures, swaps, and options will be explained. strategies like will be analyzed. Abasic and exotic instruments. The theoretical basis will be presented in lectures, while exercise classes will provide the opportunity to apply the concepts in practice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>After the completion of this course, students will have gained a thorough understanding of the spectrum of derivative financial instruments and their functioning. Furthermore, they will have learned how to implement investment strategies using derivatives. Students acquire a working knowledge of different valuation techniques, which is a necessary condition for trading these instruments and which also allows them to price new innovative products themselves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>and Insurance (FIN), Mathematical and Statistical Foundations (MSF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther information on registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per weekSelf-study Lecture 2 6 Exercise class 1 3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written Exam (60 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Stefan Ruenzi</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
